--- a/受控文档/规定规范/PRD2018_G01_周评表_0.1.0.20181124.xlsx
+++ b/受控文档/规定规范/PRD2018_G01_周评表_0.1.0.20181124.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9DC88-5F0F-4565-B9CA-1ADF9C5489B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E419C-1BF6-41E9-B2D9-EBC3DC634A56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{E0DEE2C2-240B-45E3-9817-03A969979C04}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" activeTab="3" xr2:uid="{E0DEE2C2-240B-45E3-9817-03A969979C04}"/>
   </bookViews>
   <sheets>
     <sheet name="工作业绩考核表    " sheetId="1" r:id="rId1"/>
@@ -240,16 +240,7 @@
     <t>注：特别加分事项需要附相关证明材料</t>
   </si>
   <si>
-    <t>绩效考核总评</t>
-  </si>
-  <si>
     <t>绩效改进意见</t>
-  </si>
-  <si>
-    <t>周评价</t>
-  </si>
-  <si>
-    <t>                                                                        年   月   日</t>
   </si>
   <si>
     <t>    被考核者：</t>
@@ -268,6 +259,18 @@
   </si>
   <si>
     <t>考核者： </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效考核总评</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周评价（标红）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,19 +479,100 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -498,74 +582,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,137 +922,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74A62F-705D-4E54-92D7-2A47081988CF}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="9" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="12">
         <v>10</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>20</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>15</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1031,7 +1070,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K5" sqref="K5:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,224 +1080,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>30</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>18</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>6</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="4">
         <v>30</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>15</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="4">
         <v>25</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>5</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="4">
         <v>25</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>12</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="4">
         <v>20</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:I2"/>
@@ -1267,10 +1307,10 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1279,7 +1319,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,321 +1329,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="1">
         <v>20</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="9">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
         <v>15</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
         <v>15</v>
       </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="9">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="9">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="9">
-        <v>15</v>
-      </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9">
-        <v>10</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9">
-        <v>10</v>
-      </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1624,225 +1664,297 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697D7DB0-3D3A-4B56-AA3F-85D677A6712D}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="19">
+      <c r="B4" s="6">
+        <f>SUM('工作业绩考核表    '!E3:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>0.7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="23">
+        <f>B4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="19">
+      <c r="B5" s="6">
+        <f>SUM(工作态度考核表!K5:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.15</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="23">
+        <f>B5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="19">
+      <c r="B6" s="6">
+        <f>SUM(工作能力考核表!K5:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="23">
+        <f>B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="19">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="23">
+        <f>D4+D5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="21">
+        <f>D7+D9+D10+D11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A17:A19"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -1851,14 +1963,19 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:E16"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>